--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399981.6290929604</v>
+        <v>396779.2800742108</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981492</v>
+        <v>512047.7116981491</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981489</v>
       </c>
       <c r="D2" t="n">
         <v>512047.711698149</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="F4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="G4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="H4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="I4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="J4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="K4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="L4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="M4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="N4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="O4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="P4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26547.46636323041</v>
+        <v>26020.12114918395</v>
       </c>
       <c r="C6" t="n">
-        <v>26547.46636323017</v>
+        <v>26020.12114918377</v>
       </c>
       <c r="D6" t="n">
-        <v>26547.46636323017</v>
+        <v>26020.12114918383</v>
       </c>
       <c r="E6" t="n">
-        <v>-57207.85944228787</v>
+        <v>-57520.3669212786</v>
       </c>
       <c r="F6" t="n">
-        <v>75892.14055771219</v>
+        <v>75579.63307872141</v>
       </c>
       <c r="G6" t="n">
-        <v>75892.14055771219</v>
+        <v>75579.63307872141</v>
       </c>
       <c r="H6" t="n">
-        <v>75892.14055771219</v>
+        <v>75579.63307872141</v>
       </c>
       <c r="I6" t="n">
-        <v>75892.14055771219</v>
+        <v>75579.63307872141</v>
       </c>
       <c r="J6" t="n">
-        <v>75892.14055771219</v>
+        <v>75579.63307872141</v>
       </c>
       <c r="K6" t="n">
-        <v>75892.14055771219</v>
+        <v>75579.63307872141</v>
       </c>
       <c r="L6" t="n">
-        <v>75892.14055771219</v>
+        <v>75579.63307872141</v>
       </c>
       <c r="M6" t="n">
-        <v>75892.14055771219</v>
+        <v>75579.63307872141</v>
       </c>
       <c r="N6" t="n">
-        <v>75892.14055771219</v>
+        <v>75579.63307872141</v>
       </c>
       <c r="O6" t="n">
-        <v>75892.14055771219</v>
+        <v>75579.63307872141</v>
       </c>
       <c r="P6" t="n">
-        <v>75892.14055771219</v>
+        <v>75579.63307872141</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>396779.2800742108</v>
+        <v>410505.6382116289</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981491</v>
+        <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
         <v>512047.7116981489</v>
       </c>
       <c r="D2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981491</v>
       </c>
       <c r="E2" t="n">
         <v>142900.6851873295</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26020.12114918395</v>
+        <v>26020.12114918387</v>
       </c>
       <c r="C6" t="n">
-        <v>26020.12114918377</v>
+        <v>26020.12114918375</v>
       </c>
       <c r="D6" t="n">
-        <v>26020.12114918383</v>
+        <v>26020.12114918393</v>
       </c>
       <c r="E6" t="n">
-        <v>-57520.3669212786</v>
+        <v>-57520.36692127866</v>
       </c>
       <c r="F6" t="n">
         <v>75579.63307872141</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>410505.6382116289</v>
+        <v>326720.2364500039</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
-        <v>512047.7116981491</v>
+        <v>512047.711698149</v>
       </c>
       <c r="E2" t="n">
         <v>142900.6851873295</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26020.12114918387</v>
+        <v>25975.98537050269</v>
       </c>
       <c r="C6" t="n">
-        <v>26020.12114918375</v>
+        <v>25975.98537050275</v>
       </c>
       <c r="D6" t="n">
-        <v>26020.12114918393</v>
+        <v>25975.98537050275</v>
       </c>
       <c r="E6" t="n">
-        <v>-57520.36692127866</v>
+        <v>-72330.38376039256</v>
       </c>
       <c r="F6" t="n">
-        <v>75579.63307872141</v>
+        <v>60769.61623960751</v>
       </c>
       <c r="G6" t="n">
-        <v>75579.63307872141</v>
+        <v>60769.61623960751</v>
       </c>
       <c r="H6" t="n">
-        <v>75579.63307872141</v>
+        <v>60769.61623960751</v>
       </c>
       <c r="I6" t="n">
-        <v>75579.63307872141</v>
+        <v>60769.61623960751</v>
       </c>
       <c r="J6" t="n">
-        <v>75579.63307872141</v>
+        <v>60769.61623960751</v>
       </c>
       <c r="K6" t="n">
-        <v>75579.63307872141</v>
+        <v>60769.61623960751</v>
       </c>
       <c r="L6" t="n">
-        <v>75579.63307872141</v>
+        <v>60769.61623960751</v>
       </c>
       <c r="M6" t="n">
-        <v>75579.63307872141</v>
+        <v>60769.61623960751</v>
       </c>
       <c r="N6" t="n">
-        <v>75579.63307872141</v>
+        <v>60769.61623960751</v>
       </c>
       <c r="O6" t="n">
-        <v>75579.63307872141</v>
+        <v>60769.61623960751</v>
       </c>
       <c r="P6" t="n">
-        <v>75579.63307872141</v>
+        <v>60769.61623960751</v>
       </c>
     </row>
   </sheetData>
